--- a/HLJT_local/Messages.xlsx
+++ b/HLJT_local/Messages.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="328" documentId="8_{439F560A-EC9A-4A85-BCCA-B610A865D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA84BDEF-B293-447A-B39F-D501BFAE4FFF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,6 +268,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,21 +666,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -790,10 +779,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -814,17 +826,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/HLJT_local/Messages.xlsx
+++ b/HLJT_local/Messages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/marcos_morenoverdu_uclouvain_be/Documents/BAS-Lab/Github_repos/HLJT_local/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/marcos_morenoverdu_uclouvain_be/Documents/BAS-Lab/Github_repos/HLJT/HLJT_local/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="8_{439F560A-EC9A-4A85-BCCA-B610A865D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA84BDEF-B293-447A-B39F-D501BFAE4FFF}"/>
+  <xr:revisionPtr revIDLastSave="483" documentId="8_{439F560A-EC9A-4A85-BCCA-B610A865D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A7342D7-4B69-4712-AF37-C99F6B0A0BE9}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>EN</t>
   </si>
@@ -126,33 +126,6 @@
   </si>
   <si>
     <t>Appuyez sur ESPACE pour continuer</t>
-  </si>
-  <si>
-    <t>Bienvenue à la Tâche de Jugement de Latéralité de la Main !
-Le but est de quantifier votre capacité à décider de la latéralité (droite/gauche) d'images de mains.</t>
-  </si>
-  <si>
-    <t>¡Bienvenid@ a la Tarea de Discriminación de Lateralidad!
-El objetivo es cuantificar tu capacidad para decidir la lateralidad (derecha/izquierda) de imágenes de manos.</t>
-  </si>
-  <si>
-    <t>Welcome to the Hand Laterality Judgement Task!
-The purpose is to quantify your ability to make laterality judgements (right/left) on hand images.</t>
-  </si>
-  <si>
-    <t>pract_welc_msg</t>
-  </si>
-  <si>
-    <t>You are going to start the practice block.
-Press SPACE to continue</t>
-  </si>
-  <si>
-    <t>Vas a empezar el bloque de práctica.
-Presiona ESPACIO para continuar</t>
-  </si>
-  <si>
-    <t>Vous allez commencer le bloc de pratique
-Appuyez sur ESPACE pour continuer</t>
   </si>
   <si>
     <t>This is the end of the experiment
@@ -168,6 +141,369 @@
     <t>Ceci est la fin de l'expérience
 Merci d'avoir participé !
 Attendez 3 secondes pour quitter</t>
+  </si>
+  <si>
+    <t>Welcome to the Hand Laterality Judgement Task!
+The purpose is to quantify your ability to make laterality judgements (right/left) on hand images.
+Press SPACE to start.</t>
+  </si>
+  <si>
+    <t>¡Bienvenid@ a la Tarea de Discriminación de Lateralidad!
+El objetivo es cuantificar tu capacidad para decidir la lateralidad (derecha/izquierda) de imágenes de manos.
+Presiona ESPACIO para empezar.</t>
+  </si>
+  <si>
+    <t>Bienvenue à la Tâche de Jugement de Latéralité de la Main !
+Le but est de quantifier votre capacité à décider de la latéralité (droite/gauche) d'images de mains.
+Appuyez sur SPACE pour commencer.</t>
+  </si>
+  <si>
+    <t>out_of_msg</t>
+  </si>
+  <si>
+    <t>out of</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>sur</t>
+  </si>
+  <si>
+    <t>practice_block_msg</t>
+  </si>
+  <si>
+    <t>task_block_msg</t>
+  </si>
+  <si>
+    <t>You are going to start the practice block.
+This block is just to get familiar with the task and your performance is not important.
+You will receive feedback in this block.</t>
+  </si>
+  <si>
+    <t>You are going to start a main task block.
+Your performance is important in this block.
+You have to respond as QUICKLY AND ACCURATELY as you can.</t>
+  </si>
+  <si>
+    <t>practice_end_msg</t>
+  </si>
+  <si>
+    <t>block_end_msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous allez commencer la phase d'entraînement.
+Cette phase sert uniquement à vous familiariser avec la tâche et votre performance n'a pas d'importance.
+Vous recevrez des commentaires à l'issue de cette phase. </t>
+  </si>
+  <si>
+    <t>Vous allez commencer un bloc de tâches principales.
+Vos performances sont importantes dans ce bloc.
+Vous devez répondre aussi RAPIDEMENT ET PRÉCISÉMENT que possible.</t>
+  </si>
+  <si>
+    <t>Vas a empezar el bloque de práctica.
+Este bloque es para que te familiarices con la tarea y cómo lo hagas no es importante.
+Receibirás feedback durante este bloque.</t>
+  </si>
+  <si>
+    <t>Vas a empezar un bloque principal de la tarea.
+Cómo lo hagas sí es importante en este bloque.
+Tienes que responder lo más RÁPIDA y PRECISAMENTE que puedas.</t>
+  </si>
+  <si>
+    <t>Has terminado el bloque.
+Tómate unos pocos segundos antes de continuar.
+Verás un mensaje más abajo indicando que ya puedes seguir.</t>
+  </si>
+  <si>
+    <t>You have finished the block.
+Take a few seconds before proceeding.
+A message below will let you know when you can proceed.</t>
+  </si>
+  <si>
+    <t>You have finished the practice block.
+Take a few seconds before proceeding to the next block.
+A message below will let you know when you can proceed.</t>
+  </si>
+  <si>
+    <t>Has terminado el bloque de práctica.
+Tómate unos pocos segundos antes de continuir al siguiente bloque.
+Verás un mensaje más abajo indicando que ya puedes seguir.</t>
+  </si>
+  <si>
+    <t>Vous avez terminé la phase d'entraînement.
+Prenez quelques secondes avant de passer au bloc suivant. 
+Un message ci-dessous vous indiquera quand vous pourrez continuer.</t>
+  </si>
+  <si>
+    <t>Vous avez terminé le bloc.
+Prenez quelques secondes avant de continuer. 
+Un message ci-dessous vous indiquera quand vous pourrez continuer.</t>
+  </si>
+  <si>
+    <t>blocks_msg</t>
+  </si>
+  <si>
+    <t>blocks</t>
+  </si>
+  <si>
+    <t>bloques</t>
+  </si>
+  <si>
+    <t>blocs</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Willkommen zur Hand-Lateralitäts-Bewertungsaufgabe!
+Zweck der Aufgabe ist es, Ihre Fähigkeit zu messen, Lateralisierungen (rechts/links) von Handbildern zu beurteilen.
+Drücken Sie die LEERTASTE, um zu starten.</t>
+  </si>
+  <si>
+    <t>Dies ist das Ende des Experiments.
+Vielen Dank für Ihre Teilnahme!
+Warten Sie 3 Sekunden, bevor Sie das Experiment beenden.</t>
+  </si>
+  <si>
+    <t>Drücken Sie die LEERTASTE, um fortzufahren</t>
+  </si>
+  <si>
+    <t>von</t>
+  </si>
+  <si>
+    <t>Blöcken</t>
+  </si>
+  <si>
+    <t>Sie werden nun mit dem Übungsblock beginnen.
+Dieser Block dient nur dazu, sich mit der Aufgabe vertraut zu machen, Ihre Leistung ist hier nicht entscheidend.
+In diesem Block erhalten Sie Feedback.</t>
+  </si>
+  <si>
+    <t>Sie haben den Übungsblock abgeschlossen.
+Nehmen Sie sich ein paar Sekunden Zeit, bevor Sie mit dem nächsten Block fortfahren.
+Eine Meldung unten wird Ihnen anzeigen, wann Sie weitermachen können.</t>
+  </si>
+  <si>
+    <t>Sie werden nun mit einem Hauptaufgabenblock beginnen.
+Ihre Leistung ist in diesem Block wichtig.
+Sie müssen so SCHNELL UND GENAU wie möglich antworten.</t>
+  </si>
+  <si>
+    <t>Sie haben den Block abgeschlossen.
+Nehmen Sie sich ein paar Sekunden Zeit, bevor Sie fortfahren.
+Eine Meldung unten wird Ihnen anzeigen, wann Sie weitermachen können.</t>
+  </si>
+  <si>
+    <t>age_msg</t>
+  </si>
+  <si>
+    <t>Age:</t>
+  </si>
+  <si>
+    <t>Edad:</t>
+  </si>
+  <si>
+    <t>demographics_msg</t>
+  </si>
+  <si>
+    <t>Please fill out this information about yourself.</t>
+  </si>
+  <si>
+    <t>Por favor completa esta información sobre ti.</t>
+  </si>
+  <si>
+    <t>Bitte füllen Sie diese Informationen über sich selbst aus.</t>
+  </si>
+  <si>
+    <t>Veuillez remplir ces informations vous concernant.</t>
+  </si>
+  <si>
+    <t>Âge :</t>
+  </si>
+  <si>
+    <t>Alter:</t>
+  </si>
+  <si>
+    <t>left_msg</t>
+  </si>
+  <si>
+    <t>right_msg</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Ambidextrous</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Izquierda</t>
+  </si>
+  <si>
+    <t>Ambidiestro/a</t>
+  </si>
+  <si>
+    <t>Derecha</t>
+  </si>
+  <si>
+    <t>Gauche</t>
+  </si>
+  <si>
+    <t>Droite</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Beidhändig</t>
+  </si>
+  <si>
+    <t>Rechte</t>
+  </si>
+  <si>
+    <t>Ambidextre</t>
+  </si>
+  <si>
+    <t>ambi_msg</t>
+  </si>
+  <si>
+    <t>f_msg</t>
+  </si>
+  <si>
+    <t>m_msg</t>
+  </si>
+  <si>
+    <t>tg_msg</t>
+  </si>
+  <si>
+    <t>nb_msg</t>
+  </si>
+  <si>
+    <t>o_msg</t>
+  </si>
+  <si>
+    <t>pns_msg</t>
+  </si>
+  <si>
+    <t>Prefer not saying</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Non-binary</t>
+  </si>
+  <si>
+    <t>Trans-gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Transgénero</t>
+  </si>
+  <si>
+    <t>No binario</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Prefiero no decirlo</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Transgenre</t>
+  </si>
+  <si>
+    <t>Non binaire</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Préfère ne pas le dire</t>
+  </si>
+  <si>
+    <t>Weiblich</t>
+  </si>
+  <si>
+    <t>Männlich</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t>Nicht-binär</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Möchte ich nicht sagen</t>
+  </si>
+  <si>
+    <t>next_msg</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Siguiente</t>
+  </si>
+  <si>
+    <t>Suivant</t>
+  </si>
+  <si>
+    <t>Weiter</t>
+  </si>
+  <si>
+    <t>gender_msg</t>
+  </si>
+  <si>
+    <t>Gender:</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>Genre :</t>
+  </si>
+  <si>
+    <t>Geschlecht:</t>
+  </si>
+  <si>
+    <t>laterality_msg</t>
+  </si>
+  <si>
+    <t>Hand dominance:</t>
+  </si>
+  <si>
+    <t>Mano dominante:</t>
+  </si>
+  <si>
+    <t>Handdominanz:</t>
+  </si>
+  <si>
+    <t>Dominance manuelle :</t>
   </si>
 </sst>
 </file>
@@ -571,11 +907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7265625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -583,7 +919,7 @@
     <col min="2" max="2" width="20.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -596,22 +932,28 @@
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -624,26 +966,32 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -651,6 +999,332 @@
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -780,18 +1454,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,6 +1485,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -823,12 +1505,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>